--- a/calc_for_regulation/BACVA/input_BACVA.xlsx
+++ b/calc_for_regulation/BACVA/input_BACVA.xlsx
@@ -453,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
